--- a/資料庫安裝/MacBook_MySQL_Database.xlsx
+++ b/資料庫安裝/MacBook_MySQL_Database.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Oracle 安裝說明" sheetId="4" r:id="rId1"/>
+    <sheet name="MySQL 安裝說明" sheetId="4" r:id="rId1"/>
+    <sheet name="MySQL Workbench 相關設置" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Oracle 安裝說明'!$B$2:$D$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'MySQL 安裝說明'!$B$2:$D$9</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Mac Book</t>
   </si>
@@ -332,6 +333,22 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消勾選</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入SQL語法自動轉大寫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL字型大小、SQL輸出結果字型小大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't Limit</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -339,7 +356,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
@@ -404,6 +421,14 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF0000FF"/>
+      <name val="微軟正黑體"/>
       <family val="2"/>
       <charset val="136"/>
     </font>
@@ -482,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -526,6 +551,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -689,6 +715,254 @@
         <a:xfrm>
           <a:off x="3191436" y="6479811"/>
           <a:ext cx="5342964" cy="2237917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="190500"/>
+          <a:ext cx="3901440" cy="3375660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="4023360"/>
+          <a:ext cx="6073140" cy="5044440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1028" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="53340" y="9570720"/>
+          <a:ext cx="6073140" cy="5044440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1029" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15240" y="15339060"/>
+          <a:ext cx="6073140" cy="5044440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1030" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="30480" y="21153120"/>
+          <a:ext cx="4770120" cy="1882140"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1000,8 +1274,8 @@
   </sheetPr>
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6"/>
@@ -1115,4 +1389,42 @@
   </headerFooter>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A21:A110"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="K120" sqref="K120"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="21" spans="1:1" ht="18">
+      <c r="A21" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" ht="18">
+      <c r="A50" s="17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" ht="18">
+      <c r="A80" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" ht="18">
+      <c r="A110" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/資料庫安裝/MacBook_MySQL_Database.xlsx
+++ b/資料庫安裝/MacBook_MySQL_Database.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="MySQL 安裝說明" sheetId="4" r:id="rId1"/>
@@ -208,6 +208,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消勾選</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入SQL語法自動轉大寫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQL字型大小、SQL輸出結果字型小大</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Don't Limit</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t># Mac with</t>
     </r>
@@ -327,28 +347,51 @@
         <family val="2"/>
         <charset val="136"/>
       </rPr>
-      <t>64/Docker.dmg</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>取消勾選</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>輸入SQL語法自動轉大寫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQL字型大小、SQL輸出結果字型小大</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Don't Limit</t>
+      <t xml:space="preserve">64/Docker.dmg
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve"># </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>Windows 系統</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t>僅需下載後安裝即可(僅此一步驟)
+# mysql-installer-community-8.0.25.0.msi</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+https://dev.mysql.com/downloads/installer/</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1317,7 @@
   </sheetPr>
   <dimension ref="A1:AMK9"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" ht="90.6" customHeight="1">
+    <row r="3" spans="1:6" s="1" customFormat="1" ht="157.80000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="7">
         <v>1</v>
@@ -1304,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="1" customFormat="1" ht="30" customHeight="1">
@@ -1375,7 +1418,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="5"/>
     </row>
@@ -1395,30 +1438,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A21:A110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="K120" sqref="K120"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="21" spans="1:1" ht="18">
       <c r="A21" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="18">
       <c r="A50" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:1" ht="18">
       <c r="A80" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="18">
       <c r="A110" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
